--- a/work/survey_list.xlsx
+++ b/work/survey_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>option3</t>
   </si>
@@ -40,111 +40,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Khả năng học ngoại ngữ của bạn?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tốt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bình thường</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Kém</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rất kém</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Khả năng nhớ từ mới?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nhanh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chậm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Bạn đã từng học ở level này hoặc t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ươ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ng đ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ươ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ng?</t>
-    </r>
-  </si>
-  <si>
-    <t>Đã từng</t>
-  </si>
-  <si>
-    <r>
-      <t>Ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a bao giờ.</t>
-    </r>
-  </si>
-  <si>
     <t>sort</t>
   </si>
   <si>
@@ -155,6 +50,21 @@
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>Hiện tại dự định dành thời gian cho việc học tiếng Nhật của bạn thế nào?</t>
+  </si>
+  <si>
+    <t>Tôi đang tập trung học tiếng Nhật nhanh nhất có thể nên dành toàn bộ thời gian cho việc học tiếng nhật</t>
+  </si>
+  <si>
+    <t>Mỗi ngày tôi có hơn 1 giờ cho việc học tiếng Nhật</t>
+  </si>
+  <si>
+    <t>Mỗi ngày tôi có dưới 1 giờ cho việc học tiếng Nhật</t>
+  </si>
+  <si>
+    <t>Tôi chỉ muốn học thử một chút xem sao</t>
   </si>
 </sst>
 </file>
@@ -231,8 +141,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -245,13 +161,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,16 +485,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -601,59 +523,19 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -688,16 +570,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -734,100 +616,46 @@
       </c>
       <c r="E2" s="2" t="str">
         <f>""""&amp;survey!E2&amp;""""</f>
-        <v>"Khả năng học ngoại ngữ của bạn?"</v>
+        <v>"Hiện tại dự định dành thời gian cho việc học tiếng Nhật của bạn thế nào?"</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>""""&amp;survey!F2&amp;""""</f>
-        <v>"Tốt"</v>
+        <v>"Tôi đang tập trung học tiếng Nhật nhanh nhất có thể nên dành toàn bộ thời gian cho việc học tiếng nhật"</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>""""&amp;survey!G2&amp;""""</f>
-        <v>"Bình thường"</v>
+        <v>"Mỗi ngày tôi có hơn 1 giờ cho việc học tiếng Nhật"</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>""""&amp;survey!H2&amp;""""</f>
-        <v>"Kém"</v>
+        <v>"Mỗi ngày tôi có dưới 1 giờ cho việc học tiếng Nhật"</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>""""&amp;survey!I2&amp;""""</f>
-        <v>"Rất kém"</v>
+        <v>"Tôi chỉ muốn học thử một chút xem sao"</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="str">
-        <f>""""&amp;survey!A3&amp;""""</f>
-        <v>"2"</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>""""&amp;survey!B3&amp;""""</f>
-        <v>"1"</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>""""&amp;survey!C3&amp;""""</f>
-        <v>"TRUE"</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>""""&amp;survey!D3&amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f>""""&amp;survey!E3&amp;""""</f>
-        <v>"Khả năng nhớ từ mới?"</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f>""""&amp;survey!F3&amp;""""</f>
-        <v>"Nhanh"</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f>""""&amp;survey!G3&amp;""""</f>
-        <v>"Chậm"</v>
-      </c>
-      <c r="H3" s="2" t="str">
-        <f>""""&amp;survey!H3&amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f>""""&amp;survey!I3&amp;""""</f>
-        <v>""</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="str">
-        <f>""""&amp;survey!A4&amp;""""</f>
-        <v>"3"</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>""""&amp;survey!B4&amp;""""</f>
-        <v>"1"</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f>""""&amp;survey!C4&amp;""""</f>
-        <v>"TRUE"</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f>""""&amp;survey!D4&amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f>""""&amp;survey!E4&amp;""""</f>
-        <v>"Bạn đã từng học ở level này hoặc tương đương?"</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f>""""&amp;survey!F4&amp;""""</f>
-        <v>"Đã từng"</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f>""""&amp;survey!G4&amp;""""</f>
-        <v>"Chưa bao giờ."</v>
-      </c>
-      <c r="H4" s="2" t="str">
-        <f>""""&amp;survey!H4&amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f>""""&amp;survey!I4&amp;""""</f>
-        <v>""</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2"/>
